--- a/UMS/Data.xlsx
+++ b/UMS/Data.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Key</t>
   </si>
@@ -88,9 +89,6 @@
     <t>MobileNo</t>
   </si>
   <si>
-    <t>http://medcareqa.sdglobaltech.com:4300/#/</t>
-  </si>
-  <si>
     <t>NRIC</t>
   </si>
   <si>
@@ -142,18 +140,12 @@
     <t>Type the MRN Number</t>
   </si>
   <si>
-    <t>MrnNumber</t>
-  </si>
-  <si>
     <t>EncounterType</t>
   </si>
   <si>
     <t>Consultation</t>
   </si>
   <si>
-    <t>10582058</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
@@ -232,7 +224,40 @@
     <t>590800</t>
   </si>
   <si>
-    <t>PRW1091</t>
+    <t>10172020</t>
+  </si>
+  <si>
+    <t>Billing Details</t>
+  </si>
+  <si>
+    <t>MrnNumberOP</t>
+  </si>
+  <si>
+    <t>MrnNumberEnc</t>
+  </si>
+  <si>
+    <t>Simple First Consultation</t>
+  </si>
+  <si>
+    <t>AddServices</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://medcareqa.sdglobaltech.com </t>
+  </si>
+  <si>
+    <t>MYKAD</t>
+  </si>
+  <si>
+    <t>CCRK1112</t>
+  </si>
+  <si>
+    <t>CCRK1136</t>
   </si>
 </sst>
 </file>
@@ -583,9 +608,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -609,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -617,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -641,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -649,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -657,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -665,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -673,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -681,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -689,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -697,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -705,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -713,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -721,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -729,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -737,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -745,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -766,156 +791,188 @@
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>69</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="B3 B39" numberStoredAsText="1"/>
+    <ignoredError sqref="B39 B3 B43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -935,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
